--- a/LegacySystem/src/main/resources/excel/product.xlsx
+++ b/LegacySystem/src/main/resources/excel/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24040" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>物料编码</t>
   </si>
@@ -271,9 +271,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -295,7 +295,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,30 +348,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +395,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,67 +417,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -447,7 +447,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,13 +549,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,145 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,17 +693,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,13 +720,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,9 +767,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,181 +790,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,12 +950,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,63 +968,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1291,22 +1300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="18.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.7767857142857" customWidth="1"/>
+    <col min="3" max="3" width="18.2232142857143" customWidth="1"/>
+    <col min="7" max="7" width="16.3303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:14">
+    <row r="1" ht="16.8" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,11 +1355,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:14">
+    <row r="2" ht="16.8" spans="1:14">
       <c r="A2" s="2">
         <v>3004362</v>
       </c>
@@ -1366,7 +1375,7 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1390,35 +1399,35 @@
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="17.4" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3">
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="16.8" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
         <v>9604627</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1430,141 +1439,141 @@
       <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="17.4" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3">
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4">
         <v>9919354</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.3</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="17.4" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3">
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
         <v>9712056</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="17.4" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
         <v>9920217</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="17.4" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
         <v>120511</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="17.4" spans="1:14">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:14">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>9664188</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="17.4" spans="1:14">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:14">
       <c r="A9" s="1">
         <v>3211498</v>
       </c>
@@ -1580,7 +1589,7 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1602,11 +1611,11 @@
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="17.4" spans="1:14">
+    <row r="10" ht="16.8" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -1618,7 +1627,7 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1640,11 +1649,11 @@
       <c r="M10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="17.4" spans="1:14">
+    <row r="11" ht="16.8" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -1656,7 +1665,7 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1678,11 +1687,11 @@
       <c r="M11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="17.4" spans="1:14">
+    <row r="12" ht="16.8" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -1694,7 +1703,7 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1716,11 +1725,11 @@
       <c r="M12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="17.4" spans="1:14">
+    <row r="13" ht="16.8" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -1732,7 +1741,7 @@
       <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1754,11 +1763,11 @@
       <c r="M13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="17.4" spans="1:14">
+    <row r="14" ht="16.8" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -1770,7 +1779,7 @@
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1792,11 +1801,11 @@
       <c r="M14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="17.4" spans="1:14">
+    <row r="15" ht="16.8" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -1808,7 +1817,7 @@
       <c r="E15" s="1">
         <v>0.02</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1830,11 +1839,11 @@
       <c r="M15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="17.4" spans="1:14">
+    <row r="16" ht="16.8" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -1846,7 +1855,7 @@
       <c r="E16" s="1">
         <v>0.02</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1"/>
@@ -1856,11 +1865,11 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="9">
+      <c r="N16" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="17.4" spans="1:14">
+    <row r="17" ht="16.8" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -1872,7 +1881,7 @@
       <c r="E17" s="1">
         <v>0.02</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1"/>
@@ -1882,11 +1891,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="9">
+      <c r="N17" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="17.4" spans="1:14">
+    <row r="18" ht="16.8" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
@@ -1894,7 +1903,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,11 +1923,11 @@
       <c r="M18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="17.4" spans="1:14">
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:14">
       <c r="A19" s="6">
         <v>3059786</v>
       </c>
@@ -1931,7 +1940,7 @@
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1956,11 +1965,11 @@
       <c r="M19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" ht="17.4" spans="1:14">
+      <c r="N19" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:14">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1">
@@ -1969,7 +1978,7 @@
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1994,11 +2003,11 @@
       <c r="M20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" ht="17.4" spans="1:14">
+      <c r="N20" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1">
@@ -2007,7 +2016,7 @@
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2032,11 +2041,11 @@
       <c r="M21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" ht="17.4" spans="1:14">
+      <c r="N21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1">
@@ -2045,7 +2054,7 @@
       <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2070,11 +2079,11 @@
       <c r="M22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" ht="17.4" spans="1:14">
+      <c r="N22" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="1">
@@ -2083,7 +2092,7 @@
       <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2108,11 +2117,11 @@
       <c r="M23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" ht="17.4" spans="1:14">
+      <c r="N23" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="1:14">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1">
@@ -2121,7 +2130,7 @@
       <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>0.02</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2146,11 +2155,11 @@
       <c r="M24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" ht="17.4" spans="1:14">
+      <c r="N24" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="1:14">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1">
@@ -2159,7 +2168,7 @@
       <c r="D25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>0.02</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2184,16 +2193,16 @@
       <c r="M25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" ht="17.4" spans="1:14">
+      <c r="N25" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:14">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -2214,16 +2223,16 @@
       <c r="M26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" ht="17.4" spans="1:14">
+      <c r="N26" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="1:14">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
         <v>43</v>
@@ -2244,16 +2253,16 @@
       <c r="M27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" ht="17.4" spans="1:14">
+      <c r="N27" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="1:14">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>44</v>
@@ -2274,16 +2283,16 @@
       <c r="M28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" ht="17.4" spans="1:14">
+      <c r="N28" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:14">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
         <v>45</v>
@@ -2304,16 +2313,16 @@
       <c r="M29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="17.4" spans="1:14">
+      <c r="N29" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:14">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
         <v>46</v>
@@ -2334,16 +2343,16 @@
       <c r="M30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" ht="17.4" spans="1:14">
+      <c r="N30" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:14">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>47</v>
@@ -2364,16 +2373,16 @@
       <c r="M31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" ht="17.4" spans="1:14">
+      <c r="N31" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:14">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
         <v>48</v>
@@ -2394,16 +2403,16 @@
       <c r="M32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="17.4" spans="1:14">
+      <c r="N32" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:14">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
         <v>49</v>
@@ -2424,16 +2433,16 @@
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="17.4" spans="1:14">
+      <c r="N33" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:14">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>50</v>
@@ -2454,16 +2463,16 @@
       <c r="M34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" ht="17.4" spans="1:14">
+      <c r="N34" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:14">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>30</v>
@@ -2484,16 +2493,16 @@
       <c r="M35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" ht="17.4" spans="1:14">
+      <c r="N35" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="1:14">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>51</v>
@@ -2514,16 +2523,16 @@
       <c r="M36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" ht="17.4" spans="1:14">
+      <c r="N36" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="1:14">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>52</v>
@@ -2544,16 +2553,16 @@
       <c r="M37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" ht="17.4" spans="1:14">
+      <c r="N37" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="1:14">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>53</v>
@@ -2574,16 +2583,16 @@
       <c r="M38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" ht="17.4" spans="1:14">
+      <c r="N38" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="1:14">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>54</v>
@@ -2604,16 +2613,16 @@
       <c r="M39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" ht="17.4" spans="1:14">
+      <c r="N39" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="1:14">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
         <v>55</v>
@@ -2634,15 +2643,15 @@
       <c r="M40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" ht="17.4" spans="1:14">
+      <c r="N40" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="1:14">
       <c r="A41" s="6">
         <v>3209248</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="1">
         <v>3209248</v>
       </c>
@@ -2652,7 +2661,7 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2674,11 +2683,11 @@
       <c r="M41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="17.4" spans="1:14">
+    <row r="42" ht="16.8" spans="1:14">
       <c r="A42" s="7"/>
       <c r="B42" s="6" t="s">
         <v>14</v>
@@ -2692,7 +2701,7 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2714,11 +2723,11 @@
       <c r="M42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="17.4" spans="1:14">
+    <row r="43" ht="16.8" spans="1:14">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1">
@@ -2730,7 +2739,7 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2752,11 +2761,11 @@
       <c r="M43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="17.4" spans="1:14">
+    <row r="44" ht="16.8" spans="1:14">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1">
@@ -2768,7 +2777,7 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2790,11 +2799,11 @@
       <c r="M44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="17.4" spans="1:14">
+    <row r="45" ht="16.8" spans="1:14">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1">
@@ -2806,7 +2815,7 @@
       <c r="E45" s="1">
         <v>0.015</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2828,11 +2837,11 @@
       <c r="M45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="17.4" spans="1:14">
+    <row r="46" ht="16.8" spans="1:14">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1">
@@ -2844,7 +2853,7 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2866,11 +2875,11 @@
       <c r="M46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="17.4" spans="1:14">
+    <row r="47" ht="16.8" spans="1:14">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1">
@@ -2882,7 +2891,7 @@
       <c r="E47" s="1">
         <v>0.1</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -2904,11 +2913,11 @@
       <c r="M47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="17.4" spans="1:14">
+    <row r="48" ht="16.8" spans="1:14">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1">
@@ -2920,7 +2929,7 @@
       <c r="E48" s="1">
         <v>0.1</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2942,11 +2951,11 @@
       <c r="M48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="17.4" spans="1:14">
+    <row r="49" ht="16.8" spans="1:14">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1">
@@ -2958,7 +2967,7 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2980,17 +2989,17 @@
       <c r="M49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="17.4" spans="1:14">
+    <row r="50" ht="16.8" spans="1:14">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="1" t="s">
         <v>63</v>
       </c>
@@ -3010,17 +3019,17 @@
       <c r="M50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="17.4" spans="1:14">
+    <row r="51" ht="16.8" spans="1:14">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="1" t="s">
         <v>55</v>
       </c>
@@ -3040,11 +3049,11 @@
       <c r="M51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="17.4" spans="1:14">
+    <row r="52" ht="16.8" spans="1:14">
       <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>64</v>
@@ -3052,7 +3061,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="1" t="s">
         <v>65</v>
       </c>
@@ -3072,11 +3081,11 @@
       <c r="M52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="17.4" spans="1:14">
+      <c r="N52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="1:14">
       <c r="A53" s="6">
         <v>1302215</v>
       </c>
@@ -3089,7 +3098,7 @@
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3114,11 +3123,11 @@
       <c r="M53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="17.4" spans="1:14">
+      <c r="N53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:14">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1">
@@ -3127,7 +3136,7 @@
       <c r="D54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -3152,11 +3161,11 @@
       <c r="M54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="17.4" spans="1:14">
+      <c r="N54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="1:14">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1">
@@ -3165,7 +3174,7 @@
       <c r="D55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>0.000132</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -3190,16 +3199,16 @@
       <c r="M55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="17.4" spans="1:14">
+      <c r="N55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="1:14">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
         <v>46</v>
@@ -3220,16 +3229,16 @@
       <c r="M56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="17.4" spans="1:14">
+      <c r="N56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="1:14">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
         <v>41</v>
@@ -3250,16 +3259,16 @@
       <c r="M57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N57" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" ht="17.4" spans="1:14">
+      <c r="N57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="1:14">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
         <v>69</v>
@@ -3280,11 +3289,11 @@
       <c r="M58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" ht="17.4" spans="1:14">
+      <c r="N58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="1:14">
       <c r="A59" s="6">
         <v>3031238</v>
       </c>
@@ -3297,7 +3306,7 @@
       <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3322,11 +3331,11 @@
       <c r="M59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" ht="17.4" spans="1:14">
+      <c r="N59" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="1:14">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="1">
@@ -3335,7 +3344,7 @@
       <c r="D60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -3360,11 +3369,11 @@
       <c r="M60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" ht="17.4" spans="1:14">
+      <c r="N60" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="1:14">
       <c r="A61" s="7"/>
       <c r="B61" s="6" t="s">
         <v>14</v>
@@ -3375,7 +3384,7 @@
       <c r="D61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -3400,11 +3409,11 @@
       <c r="M61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" ht="17.4" spans="1:14">
+      <c r="N61" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="1:14">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="1">
@@ -3413,7 +3422,7 @@
       <c r="D62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3438,11 +3447,11 @@
       <c r="M62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N62" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" ht="17.4" spans="1:14">
+      <c r="N62" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="1:14">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="1">
@@ -3451,7 +3460,7 @@
       <c r="D63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -3476,11 +3485,11 @@
       <c r="M63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N63" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" ht="17.4" spans="1:14">
+      <c r="N63" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="1:14">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="1">
@@ -3489,7 +3498,7 @@
       <c r="D64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>0.02</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -3514,11 +3523,11 @@
       <c r="M64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" ht="17.4" spans="1:14">
+      <c r="N64" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="1:14">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="1">
@@ -3527,7 +3536,7 @@
       <c r="D65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>0.02</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -3552,16 +3561,16 @@
       <c r="M65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" ht="17.4" spans="1:14">
+      <c r="N65" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="1:14">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
         <v>24</v>
@@ -3582,16 +3591,16 @@
       <c r="M66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" ht="17.4" spans="1:14">
+      <c r="N66" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="1:14">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
         <v>56</v>
@@ -3612,16 +3621,16 @@
       <c r="M67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N67" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" ht="17.4" spans="1:14">
+      <c r="N67" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" ht="16.8" spans="1:14">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="3"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
         <v>60</v>
@@ -3642,16 +3651,16 @@
       <c r="M68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N68" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" ht="17.4" spans="1:14">
+      <c r="N68" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" ht="16.8" spans="1:14">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="3"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
         <v>29</v>
@@ -3672,16 +3681,16 @@
       <c r="M69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" ht="17.4" spans="1:14">
+      <c r="N69" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" ht="16.8" spans="1:14">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
         <v>73</v>
@@ -3702,16 +3711,16 @@
       <c r="M70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" ht="17.4" spans="1:14">
+      <c r="N70" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" ht="16.8" spans="1:14">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
         <v>74</v>
@@ -3732,16 +3741,16 @@
       <c r="M71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N71" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" ht="17.4" spans="1:14">
+      <c r="N71" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" ht="16.8" spans="1:14">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
         <v>75</v>
@@ -3762,16 +3771,16 @@
       <c r="M72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N72" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" ht="17.4" spans="1:14">
+      <c r="N72" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" ht="16.8" spans="1:14">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
         <v>37</v>
@@ -3792,16 +3801,16 @@
       <c r="M73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" ht="17.4" spans="1:14">
+      <c r="N73" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" ht="16.8" spans="1:14">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="3"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
         <v>76</v>
@@ -3822,18 +3831,18 @@
       <c r="M74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" ht="17.4" spans="1:14">
+      <c r="N74" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" ht="16.8" spans="1:14">
       <c r="A75" s="8"/>
       <c r="B75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
         <v>33</v>
@@ -3854,17 +3863,21 @@
       <c r="M75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" ht="17.4" spans="1:14">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="N75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="16.8" spans="1:14">
+      <c r="A76" s="11">
+        <v>3005837</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="C76" s="1">
         <v>3005837</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="1">
@@ -3892,21 +3905,17 @@
       <c r="M76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" ht="17.4" spans="1:14">
-      <c r="A77" s="6">
-        <v>3005837</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="N76" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" ht="16.8" spans="1:14">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="1">
         <v>9324130</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="1">
@@ -3934,17 +3943,17 @@
       <c r="M77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N77" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" ht="17.4" spans="1:14">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="N77" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" ht="16.8" spans="1:14">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="1">
         <v>9324143</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E78" s="1">
@@ -3972,17 +3981,17 @@
       <c r="M78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" ht="17.4" spans="1:14">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="N78" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" ht="16.8" spans="1:14">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="1">
         <v>9324156</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="1">
@@ -4010,17 +4019,17 @@
       <c r="M79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N79" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" ht="17.4" spans="1:14">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="N79" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" ht="16.8" spans="1:14">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="1">
         <v>9324169</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="1">
@@ -4048,17 +4057,17 @@
       <c r="M80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" ht="17.4" spans="1:14">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="N80" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" ht="16.8" spans="1:14">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="1">
         <v>172501</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="1">
@@ -4086,17 +4095,17 @@
       <c r="M81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N81" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" ht="17.4" spans="1:14">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="N81" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" ht="16.8" spans="1:14">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="1">
         <v>9624906</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="1">
@@ -4124,17 +4133,17 @@
       <c r="M82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N82" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" ht="17.4" spans="1:14">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
+      <c r="N82" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" ht="16.8" spans="1:14">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="1">
         <v>9664188</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="1">
@@ -4162,17 +4171,17 @@
       <c r="M83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" ht="17.4" spans="1:14">
-      <c r="A84" s="8"/>
+      <c r="N83" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" ht="16.8" spans="1:14">
+      <c r="A84" s="13"/>
       <c r="B84" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
@@ -4194,11 +4203,11 @@
       <c r="M84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" ht="17.4" spans="1:14">
+      <c r="N84" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" ht="16.8" spans="1:14">
       <c r="A85" s="6">
         <v>3036466</v>
       </c>
@@ -4233,14 +4242,14 @@
       <c r="L85" s="1">
         <v>1</v>
       </c>
-      <c r="M85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" ht="17.4" spans="1:14">
+      <c r="M85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" ht="16.8" spans="1:14">
       <c r="A86" s="7"/>
       <c r="B86" s="5"/>
       <c r="C86" s="1">
@@ -4271,14 +4280,14 @@
       <c r="L86" s="1">
         <v>1</v>
       </c>
-      <c r="M86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" ht="17.4" spans="1:14">
+      <c r="M86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" ht="16.8" spans="1:14">
       <c r="A87" s="7"/>
       <c r="B87" s="2" t="s">
         <v>14</v>
@@ -4311,16 +4320,16 @@
       <c r="L87" s="1">
         <v>1</v>
       </c>
-      <c r="M87" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" ht="17.4" spans="1:14">
+      <c r="M87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" ht="16.8" spans="1:14">
       <c r="A88" s="7"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="1">
         <v>9713055</v>
       </c>
@@ -4349,16 +4358,16 @@
       <c r="L88" s="1">
         <v>1</v>
       </c>
-      <c r="M88" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N88" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" ht="17.4" spans="1:14">
+      <c r="M88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" ht="16.8" spans="1:14">
       <c r="A89" s="7"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="1">
         <v>9624836</v>
       </c>
@@ -4387,16 +4396,16 @@
       <c r="L89" s="1">
         <v>1</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" ht="17.4" spans="1:14">
+      <c r="M89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" ht="16.8" spans="1:14">
       <c r="A90" s="7"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="1">
         <v>9664188</v>
       </c>
@@ -4425,16 +4434,16 @@
       <c r="L90" s="1">
         <v>1</v>
       </c>
-      <c r="M90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N90" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" ht="17.4" spans="1:14">
+      <c r="M90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" ht="16.8" spans="1:14">
       <c r="A91" s="7"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4455,16 +4464,16 @@
       <c r="L91" s="1">
         <v>1</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" ht="17.4" spans="1:14">
+      <c r="M91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" ht="16.8" spans="1:14">
       <c r="A92" s="7"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4485,16 +4494,16 @@
       <c r="L92" s="1">
         <v>1</v>
       </c>
-      <c r="M92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N92" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" ht="17.4" spans="1:14">
+      <c r="M92" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="16.8" spans="1:14">
       <c r="A93" s="7"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4515,16 +4524,16 @@
       <c r="L93" s="1">
         <v>1</v>
       </c>
-      <c r="M93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N93" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" ht="17.4" spans="1:14">
+      <c r="M93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" ht="16.8" spans="1:14">
       <c r="A94" s="7"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4545,16 +4554,16 @@
       <c r="L94" s="1">
         <v>1</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N94" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" ht="17.4" spans="1:14">
+      <c r="M94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" ht="16.8" spans="1:14">
       <c r="A95" s="7"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4575,16 +4584,16 @@
       <c r="L95" s="1">
         <v>1</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N95" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" ht="17.4" spans="1:14">
+      <c r="M95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" ht="16.8" spans="1:14">
       <c r="A96" s="7"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4605,14 +4614,14 @@
       <c r="L96" s="1">
         <v>1</v>
       </c>
-      <c r="M96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N96" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" ht="17.4" spans="1:14">
+      <c r="M96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" ht="16.8" spans="1:14">
       <c r="A97" s="7"/>
       <c r="B97" s="5"/>
       <c r="C97" s="1"/>
@@ -4635,16 +4644,16 @@
       <c r="L97" s="1">
         <v>1</v>
       </c>
-      <c r="M97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N97" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" ht="17.4" spans="1:14">
+      <c r="M97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" ht="16.8" spans="1:14">
       <c r="A98" s="8"/>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C98" s="1"/>
@@ -4667,10 +4676,10 @@
       <c r="L98" s="1">
         <v>1</v>
       </c>
-      <c r="M98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N98" s="9">
+      <c r="M98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4682,7 +4691,7 @@
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="A59:A75"/>
-    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="A76:A84"/>
     <mergeCell ref="A85:A98"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B17"/>
@@ -4691,7 +4700,7 @@
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B74"/>
-    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B76:B83"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B87:B97"/>
   </mergeCells>

--- a/LegacySystem/src/main/resources/excel/product.xlsx
+++ b/LegacySystem/src/main/resources/excel/product.xlsx
@@ -270,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -302,16 +302,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,9 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,38 +387,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +416,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,30 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,19 +447,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,43 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,13 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,37 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,20 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,17 +732,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,172 +790,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,15 +972,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,8 +1295,8 @@
   <sheetPr/>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8"/>
@@ -2651,7 +2642,9 @@
       <c r="A41" s="6">
         <v>3209248</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C41" s="1">
         <v>3209248</v>
       </c>
@@ -2689,9 +2682,7 @@
     </row>
     <row r="42" ht="16.8" spans="1:14">
       <c r="A42" s="7"/>
-      <c r="B42" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="1">
         <v>117802</v>
       </c>
@@ -3868,10 +3859,10 @@
       </c>
     </row>
     <row r="76" ht="16.8" spans="1:14">
-      <c r="A76" s="11">
+      <c r="A76" s="6">
         <v>3005837</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="1">
@@ -3910,8 +3901,8 @@
       </c>
     </row>
     <row r="77" ht="16.8" spans="1:14">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="1">
         <v>9324130</v>
       </c>
@@ -3948,8 +3939,8 @@
       </c>
     </row>
     <row r="78" ht="16.8" spans="1:14">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="1">
         <v>9324143</v>
       </c>
@@ -3986,8 +3977,8 @@
       </c>
     </row>
     <row r="79" ht="16.8" spans="1:14">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="1">
         <v>9324156</v>
       </c>
@@ -4024,8 +4015,8 @@
       </c>
     </row>
     <row r="80" ht="16.8" spans="1:14">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="1">
         <v>9324169</v>
       </c>
@@ -4062,8 +4053,8 @@
       </c>
     </row>
     <row r="81" ht="16.8" spans="1:14">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="1">
         <v>172501</v>
       </c>
@@ -4100,8 +4091,8 @@
       </c>
     </row>
     <row r="82" ht="16.8" spans="1:14">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="1">
         <v>9624906</v>
       </c>
@@ -4138,8 +4129,8 @@
       </c>
     </row>
     <row r="83" ht="16.8" spans="1:14">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="1">
         <v>9664188</v>
       </c>
@@ -4176,7 +4167,7 @@
       </c>
     </row>
     <row r="84" ht="16.8" spans="1:14">
-      <c r="A84" s="13"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="1" t="s">
         <v>32</v>
       </c>
@@ -4696,7 +4687,7 @@
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="B19:B40"/>
-    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B41:B51"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B74"/>

--- a/LegacySystem/src/main/resources/excel/product.xlsx
+++ b/LegacySystem/src/main/resources/excel/product.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F947E-FFA7-4A84-A52A-E56F9C0B6BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24040" windowHeight="13120"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="84">
   <si>
     <t>物料编码</t>
   </si>
@@ -263,19 +269,17 @@
   </si>
   <si>
     <t>line07</t>
+  </si>
+  <si>
+    <t>副资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,345 +298,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -692,259 +379,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,11 +407,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,68 +422,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1287,26 +694,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A52"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7767857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.2232142857143" customWidth="1"/>
-    <col min="7" max="7" width="16.3303571428571" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:14">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,15 +753,15 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:14">
-      <c r="A2" s="2">
+    <row r="2" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>3004362</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1">
@@ -1366,7 +773,7 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1390,35 +797,35 @@
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="16.8" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2">
         <v>9604627</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1430,145 +837,145 @@
       <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2">
         <v>9919354</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>0.3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16.8" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2">
         <v>9712056</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="16.8" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2">
         <v>9920217</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="16.8" spans="1:14">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2">
         <v>120511</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="16.8" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2">
         <v>9664188</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="16.8" spans="1:14">
-      <c r="A9" s="1">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>3211498</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1">
@@ -1580,7 +987,7 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1602,13 +1009,13 @@
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:14">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1">
         <v>110504</v>
       </c>
@@ -1618,7 +1025,7 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1640,13 +1047,13 @@
       <c r="M10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="16.8" spans="1:14">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>110511</v>
       </c>
@@ -1656,7 +1063,7 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1678,13 +1085,13 @@
       <c r="M11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="1:14">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>55138</v>
       </c>
@@ -1694,7 +1101,7 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1716,13 +1123,13 @@
       <c r="M12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="16.8" spans="1:14">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>123351</v>
       </c>
@@ -1732,7 +1139,7 @@
       <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1754,13 +1161,13 @@
       <c r="M13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="16.8" spans="1:14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>123376</v>
       </c>
@@ -1770,7 +1177,7 @@
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1792,13 +1199,13 @@
       <c r="M14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="16.8" spans="1:14">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1">
         <v>9624909</v>
       </c>
@@ -1808,7 +1215,7 @@
       <c r="E15" s="1">
         <v>0.02</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1830,13 +1237,13 @@
       <c r="M15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="1:14">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1">
         <v>9664188</v>
       </c>
@@ -1846,7 +1253,7 @@
       <c r="E16" s="1">
         <v>0.02</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1"/>
@@ -1856,13 +1263,13 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="10">
+      <c r="N16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="1:14">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1">
         <v>9624836</v>
       </c>
@@ -1872,7 +1279,7 @@
       <c r="E17" s="1">
         <v>0.02</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1"/>
@@ -1882,19 +1289,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="10">
+      <c r="N17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="1:14">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,15 +1321,15 @@
       <c r="M18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="16.8" spans="1:14">
-      <c r="A19" s="6">
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>3059786</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="1">
@@ -1931,7 +1338,7 @@
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1956,20 +1363,20 @@
       <c r="M19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" ht="16.8" spans="1:14">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="N19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1">
         <v>123914</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1994,20 +1401,20 @@
       <c r="M20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" ht="16.8" spans="1:14">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="N20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1">
         <v>130280</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2032,20 +1439,20 @@
       <c r="M21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" ht="16.8" spans="1:14">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="N21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1">
         <v>117502</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2070,20 +1477,20 @@
       <c r="M22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" ht="16.8" spans="1:14">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="N22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1">
         <v>106095</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2108,20 +1515,20 @@
       <c r="M23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" ht="16.8" spans="1:14">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="N23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1">
         <v>172501</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>0.02</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2146,20 +1553,20 @@
       <c r="M24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" ht="16.8" spans="1:14">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="N24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1">
         <v>9664188</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>0.02</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2184,16 +1591,16 @@
       <c r="M25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" ht="16.8" spans="1:14">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="N25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -2214,16 +1621,16 @@
       <c r="M26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" ht="16.8" spans="1:14">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="N26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
         <v>43</v>
@@ -2244,16 +1651,16 @@
       <c r="M27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" ht="16.8" spans="1:14">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="N27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>44</v>
@@ -2274,16 +1681,16 @@
       <c r="M28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" ht="16.8" spans="1:14">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="N28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
         <v>45</v>
@@ -2304,16 +1711,16 @@
       <c r="M29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="16.8" spans="1:14">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="N29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
         <v>46</v>
@@ -2334,16 +1741,16 @@
       <c r="M30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" ht="16.8" spans="1:14">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="N30" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>47</v>
@@ -2364,16 +1771,16 @@
       <c r="M31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" ht="16.8" spans="1:14">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="N31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
         <v>48</v>
@@ -2394,16 +1801,16 @@
       <c r="M32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="16.8" spans="1:14">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="N32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
         <v>49</v>
@@ -2424,16 +1831,16 @@
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="16.8" spans="1:14">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="N33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>50</v>
@@ -2454,16 +1861,16 @@
       <c r="M34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" ht="16.8" spans="1:14">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="N34" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>30</v>
@@ -2484,16 +1891,16 @@
       <c r="M35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" ht="16.8" spans="1:14">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="N35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>51</v>
@@ -2514,16 +1921,16 @@
       <c r="M36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" ht="16.8" spans="1:14">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="N36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>52</v>
@@ -2544,16 +1951,16 @@
       <c r="M37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" ht="16.8" spans="1:14">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="N37" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>53</v>
@@ -2574,16 +1981,16 @@
       <c r="M38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" ht="16.8" spans="1:14">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="N38" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>54</v>
@@ -2604,16 +2011,16 @@
       <c r="M39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" ht="16.8" spans="1:14">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="N39" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
         <v>55</v>
@@ -2634,15 +2041,15 @@
       <c r="M40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" ht="16.8" spans="1:14">
-      <c r="A41" s="6">
+      <c r="N40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>3209248</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="1">
@@ -2654,7 +2061,7 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2676,13 +2083,13 @@
       <c r="M41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="16.8" spans="1:14">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+    <row r="42" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="1">
         <v>117802</v>
       </c>
@@ -2692,7 +2099,7 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2714,13 +2121,13 @@
       <c r="M42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="16.8" spans="1:14">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+    <row r="43" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="1">
         <v>117803</v>
       </c>
@@ -2730,7 +2137,7 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2752,13 +2159,13 @@
       <c r="M43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="16.8" spans="1:14">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="1">
         <v>117804</v>
       </c>
@@ -2768,7 +2175,7 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2790,13 +2197,13 @@
       <c r="M44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="16.8" spans="1:14">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+    <row r="45" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1">
         <v>9876594</v>
       </c>
@@ -2804,9 +2211,9 @@
         <v>21</v>
       </c>
       <c r="E45" s="1">
-        <v>0.015</v>
-      </c>
-      <c r="F45" s="4" t="s">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2828,13 +2235,13 @@
       <c r="M45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="16.8" spans="1:14">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="1">
         <v>9019513</v>
       </c>
@@ -2844,7 +2251,7 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2866,13 +2273,13 @@
       <c r="M46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="16.8" spans="1:14">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+    <row r="47" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1">
         <v>9621082</v>
       </c>
@@ -2882,7 +2289,7 @@
       <c r="E47" s="1">
         <v>0.1</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -2904,13 +2311,13 @@
       <c r="M47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="10">
+      <c r="N47" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="16.8" spans="1:14">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+    <row r="48" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="1">
         <v>9664175</v>
       </c>
@@ -2920,7 +2327,7 @@
       <c r="E48" s="1">
         <v>0.1</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2942,13 +2349,13 @@
       <c r="M48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="10">
+      <c r="N48" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="16.8" spans="1:14">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+    <row r="49" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="1">
         <v>9157920</v>
       </c>
@@ -2958,7 +2365,7 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2980,25 +2387,25 @@
       <c r="M49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="10">
+      <c r="N49" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="16.8" spans="1:14">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+    <row r="50" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>23</v>
+      <c r="I50" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
@@ -3010,17 +2417,17 @@
       <c r="M50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N50" s="10">
+      <c r="N50" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="16.8" spans="1:14">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
+    <row r="51" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="1" t="s">
         <v>55</v>
       </c>
@@ -3040,19 +2447,19 @@
       <c r="M51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="10">
+      <c r="N51" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="16.8" spans="1:14">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
       <c r="B52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="1" t="s">
         <v>65</v>
       </c>
@@ -3072,15 +2479,15 @@
       <c r="M52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="16.8" spans="1:14">
-      <c r="A53" s="6">
+      <c r="N52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>1302215</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="1">
@@ -3089,7 +2496,7 @@
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3114,20 +2521,20 @@
       <c r="M53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="16.8" spans="1:14">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="N53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="1">
         <v>9742770</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -3152,21 +2559,21 @@
       <c r="M54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="16.8" spans="1:14">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="1">
         <v>192182</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="4">
-        <v>0.000132</v>
+      <c r="E55" s="2">
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>16</v>
@@ -3190,16 +2597,16 @@
       <c r="M55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N55" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="16.8" spans="1:14">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
         <v>46</v>
@@ -3220,16 +2627,16 @@
       <c r="M56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="16.8" spans="1:14">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
         <v>41</v>
@@ -3250,16 +2657,16 @@
       <c r="M57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N57" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" ht="16.8" spans="1:14">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
         <v>69</v>
@@ -3280,15 +2687,15 @@
       <c r="M58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" ht="16.8" spans="1:14">
-      <c r="A59" s="6">
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>3031238</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="1">
@@ -3297,7 +2704,7 @@
       <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3322,20 +2729,20 @@
       <c r="M59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N59" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" ht="16.8" spans="1:14">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
+      <c r="N59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="1">
         <v>9722208</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="2">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -3360,13 +2767,13 @@
       <c r="M60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" ht="16.8" spans="1:14">
-      <c r="A61" s="7"/>
-      <c r="B61" s="6" t="s">
+      <c r="N60" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="1">
@@ -3375,7 +2782,7 @@
       <c r="D61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -3400,20 +2807,20 @@
       <c r="M61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N61" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" ht="16.8" spans="1:14">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="N61" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="1">
         <v>9722075</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3438,20 +2845,20 @@
       <c r="M62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N62" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" ht="16.8" spans="1:14">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="N62" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="1">
         <v>55133</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -3476,20 +2883,20 @@
       <c r="M63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N63" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" ht="16.8" spans="1:14">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="N63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="1">
         <v>9624834</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="2">
         <v>0.02</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -3514,20 +2921,20 @@
       <c r="M64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" ht="16.8" spans="1:14">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+      <c r="N64" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="1">
         <v>9664188</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="2">
         <v>0.02</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -3552,16 +2959,16 @@
       <c r="M65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" ht="16.8" spans="1:14">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="N65" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
         <v>24</v>
@@ -3582,16 +2989,16 @@
       <c r="M66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" ht="16.8" spans="1:14">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="N66" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
         <v>56</v>
@@ -3612,16 +3019,16 @@
       <c r="M67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N67" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" ht="16.8" spans="1:14">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="N67" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
         <v>60</v>
@@ -3642,16 +3049,16 @@
       <c r="M68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N68" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" ht="16.8" spans="1:14">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="N68" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
         <v>29</v>
@@ -3672,16 +3079,16 @@
       <c r="M69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N69" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" ht="16.8" spans="1:14">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="N69" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
         <v>73</v>
@@ -3702,16 +3109,16 @@
       <c r="M70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" ht="16.8" spans="1:14">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="N70" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
         <v>74</v>
@@ -3732,16 +3139,16 @@
       <c r="M71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N71" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" ht="16.8" spans="1:14">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="N71" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
         <v>75</v>
@@ -3762,16 +3169,16 @@
       <c r="M72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N72" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" ht="16.8" spans="1:14">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="N72" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
         <v>37</v>
@@ -3792,16 +3199,16 @@
       <c r="M73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" ht="16.8" spans="1:14">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
+      <c r="N73" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
         <v>76</v>
@@ -3822,18 +3229,18 @@
       <c r="M74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" ht="16.8" spans="1:14">
-      <c r="A75" s="8"/>
+      <c r="N74" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
       <c r="B75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
         <v>33</v>
@@ -3854,21 +3261,21 @@
       <c r="M75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" ht="16.8" spans="1:14">
-      <c r="A76" s="6">
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
         <v>3005837</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="1">
         <v>3005837</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="1">
@@ -3896,17 +3303,17 @@
       <c r="M76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N76" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" ht="16.8" spans="1:14">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="N76" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="1">
         <v>9324130</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="1">
@@ -3934,17 +3341,17 @@
       <c r="M77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N77" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" ht="16.8" spans="1:14">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="N77" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="1">
         <v>9324143</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E78" s="1">
@@ -3972,17 +3379,17 @@
       <c r="M78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" ht="16.8" spans="1:14">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="N78" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="1">
         <v>9324156</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="1">
@@ -4010,17 +3417,17 @@
       <c r="M79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N79" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" ht="16.8" spans="1:14">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="N79" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="1">
         <v>9324169</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="1">
@@ -4048,17 +3455,17 @@
       <c r="M80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N80" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" ht="16.8" spans="1:14">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="N80" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="1">
         <v>172501</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="1">
@@ -4086,17 +3493,17 @@
       <c r="M81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N81" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" ht="16.8" spans="1:14">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="N81" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="1">
         <v>9624906</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="1">
@@ -4124,17 +3531,17 @@
       <c r="M82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N82" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" ht="16.8" spans="1:14">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
+      <c r="N82" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="1">
         <v>9664188</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="1">
@@ -4162,17 +3569,17 @@
       <c r="M83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" ht="16.8" spans="1:14">
-      <c r="A84" s="8"/>
+      <c r="N83" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
       <c r="B84" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
@@ -4194,15 +3601,15 @@
       <c r="M84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" ht="16.8" spans="1:14">
-      <c r="A85" s="6">
+      <c r="N84" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>3036466</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C85" s="1">
@@ -4233,16 +3640,16 @@
       <c r="L85" s="1">
         <v>1</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" ht="16.8" spans="1:14">
-      <c r="A86" s="7"/>
-      <c r="B86" s="5"/>
+      <c r="M85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="1">
         <v>9761340</v>
       </c>
@@ -4271,16 +3678,16 @@
       <c r="L86" s="1">
         <v>1</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" ht="16.8" spans="1:14">
-      <c r="A87" s="7"/>
-      <c r="B87" s="2" t="s">
+      <c r="M86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="1">
@@ -4311,16 +3718,16 @@
       <c r="L87" s="1">
         <v>1</v>
       </c>
-      <c r="M87" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" ht="16.8" spans="1:14">
-      <c r="A88" s="7"/>
-      <c r="B88" s="3"/>
+      <c r="M87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="1">
         <v>9713055</v>
       </c>
@@ -4349,16 +3756,16 @@
       <c r="L88" s="1">
         <v>1</v>
       </c>
-      <c r="M88" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N88" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" ht="16.8" spans="1:14">
-      <c r="A89" s="7"/>
-      <c r="B89" s="3"/>
+      <c r="M88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="1">
         <v>9624836</v>
       </c>
@@ -4387,16 +3794,16 @@
       <c r="L89" s="1">
         <v>1</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" ht="16.8" spans="1:14">
-      <c r="A90" s="7"/>
-      <c r="B90" s="3"/>
+      <c r="M89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="1">
         <v>9664188</v>
       </c>
@@ -4425,16 +3832,16 @@
       <c r="L90" s="1">
         <v>1</v>
       </c>
-      <c r="M90" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N90" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" ht="16.8" spans="1:14">
-      <c r="A91" s="7"/>
-      <c r="B91" s="3"/>
+      <c r="M90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4455,16 +3862,16 @@
       <c r="L91" s="1">
         <v>1</v>
       </c>
-      <c r="M91" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" ht="16.8" spans="1:14">
-      <c r="A92" s="7"/>
-      <c r="B92" s="3"/>
+      <c r="M91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4485,16 +3892,16 @@
       <c r="L92" s="1">
         <v>1</v>
       </c>
-      <c r="M92" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N92" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" ht="16.8" spans="1:14">
-      <c r="A93" s="7"/>
-      <c r="B93" s="3"/>
+      <c r="M92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4515,16 +3922,16 @@
       <c r="L93" s="1">
         <v>1</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N93" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" ht="16.8" spans="1:14">
-      <c r="A94" s="7"/>
-      <c r="B94" s="3"/>
+      <c r="M93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4545,16 +3952,16 @@
       <c r="L94" s="1">
         <v>1</v>
       </c>
-      <c r="M94" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N94" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" ht="16.8" spans="1:14">
-      <c r="A95" s="7"/>
-      <c r="B95" s="3"/>
+      <c r="M94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4575,16 +3982,16 @@
       <c r="L95" s="1">
         <v>1</v>
       </c>
-      <c r="M95" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N95" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" ht="16.8" spans="1:14">
-      <c r="A96" s="7"/>
-      <c r="B96" s="3"/>
+      <c r="M95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4605,16 +4012,16 @@
       <c r="L96" s="1">
         <v>1</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N96" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" ht="16.8" spans="1:14">
-      <c r="A97" s="7"/>
-      <c r="B97" s="5"/>
+      <c r="M96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4635,16 +4042,16 @@
       <c r="L97" s="1">
         <v>1</v>
       </c>
-      <c r="M97" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N97" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" ht="16.8" spans="1:14">
-      <c r="A98" s="8"/>
-      <c r="B98" s="4" t="s">
+      <c r="M97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C98" s="1"/>
@@ -4667,20 +4074,15 @@
       <c r="L98" s="1">
         <v>1</v>
       </c>
-      <c r="M98" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N98" s="10">
+      <c r="M98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A19:A40"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A53:A58"/>
     <mergeCell ref="A59:A75"/>
     <mergeCell ref="A76:A84"/>
     <mergeCell ref="A85:A98"/>
@@ -4694,8 +4096,13 @@
     <mergeCell ref="B76:B83"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B87:B97"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A40"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A53:A58"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>